--- a/REGULAR/OJT/NEW DONE/CARAAN, JOSEPHINE.xlsx
+++ b/REGULAR/OJT/NEW DONE/CARAAN, JOSEPHINE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FAE50E-8F1A-4903-B1C5-CCAB6CAA3325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="306">
   <si>
     <t>PERIOD</t>
   </si>
@@ -949,12 +948,15 @@
   </si>
   <si>
     <t>CTO</t>
+  </si>
+  <si>
+    <t>BDAY 5/11/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1339,6 +1341,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1371,9 +1376,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1652,25 +1654,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K470" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K470" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1977,97 +1979,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A10"/>
-      <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <pane ySplit="3690" topLeftCell="A400" activePane="bottomLeft"/>
+      <selection activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="B409" sqref="B409"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="61">
         <v>37050</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2075,7 +2077,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2088,24 +2090,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2140,7 +2142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2149,7 +2151,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>192.3839999999999</v>
+        <v>193.6339999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2159,12 +2161,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>329.10199999999998</v>
+        <v>330.35199999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>64</v>
       </c>
@@ -2179,7 +2181,7 @@
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>37109</v>
       </c>
@@ -2199,7 +2201,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <f>EDATE(A11,1)</f>
         <v>37140</v>
@@ -2220,7 +2222,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f t="shared" ref="A13:A96" si="0">EDATE(A12,1)</f>
         <v>37170</v>
@@ -2241,7 +2243,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" si="0"/>
         <v>37201</v>
@@ -2262,7 +2264,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>37231</v>
@@ -2283,7 +2285,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>80</v>
       </c>
@@ -2305,7 +2307,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f>EDATE(A15,1)</f>
         <v>37262</v>
@@ -2330,7 +2332,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>37293</v>
@@ -2351,7 +2353,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>37321</v>
@@ -2372,7 +2374,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>37352</v>
@@ -2393,7 +2395,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>37382</v>
@@ -2414,7 +2416,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>37413</v>
@@ -2435,7 +2437,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>37443</v>
@@ -2456,7 +2458,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>37474</v>
@@ -2477,7 +2479,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f t="shared" si="0"/>
         <v>37505</v>
@@ -2498,7 +2500,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f t="shared" si="0"/>
         <v>37535</v>
@@ -2519,7 +2521,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>37566</v>
@@ -2540,7 +2542,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>37596</v>
@@ -2565,7 +2567,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>79</v>
       </c>
@@ -2587,7 +2589,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f>EDATE(A28,1)</f>
         <v>37627</v>
@@ -2608,7 +2610,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>37658</v>
@@ -2629,7 +2631,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>37686</v>
@@ -2650,7 +2652,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>37717</v>
@@ -2671,7 +2673,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f t="shared" si="0"/>
         <v>37747</v>
@@ -2692,7 +2694,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f t="shared" si="0"/>
         <v>37778</v>
@@ -2713,7 +2715,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <f t="shared" si="0"/>
         <v>37808</v>
@@ -2734,7 +2736,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f t="shared" si="0"/>
         <v>37839</v>
@@ -2755,7 +2757,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <f t="shared" si="0"/>
         <v>37870</v>
@@ -2776,7 +2778,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f t="shared" si="0"/>
         <v>37900</v>
@@ -2801,7 +2803,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f t="shared" si="0"/>
         <v>37931</v>
@@ -2826,7 +2828,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="0"/>
         <v>37961</v>
@@ -2851,7 +2853,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>94</v>
@@ -2871,7 +2873,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
         <v>78</v>
       </c>
@@ -2893,7 +2895,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <f>EDATE(A41,1)</f>
         <v>37992</v>
@@ -2918,7 +2920,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f t="shared" si="0"/>
         <v>38023</v>
@@ -2943,7 +2945,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f t="shared" si="0"/>
         <v>38052</v>
@@ -2968,7 +2970,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f t="shared" si="0"/>
         <v>38083</v>
@@ -2993,7 +2995,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f t="shared" si="0"/>
         <v>38113</v>
@@ -3018,7 +3020,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f t="shared" si="0"/>
         <v>38144</v>
@@ -3039,7 +3041,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f t="shared" si="0"/>
         <v>38174</v>
@@ -3064,7 +3066,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f t="shared" si="0"/>
         <v>38205</v>
@@ -3089,7 +3091,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>90</v>
@@ -3106,7 +3108,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f>EDATE(A51,1)</f>
         <v>38236</v>
@@ -3131,7 +3133,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" si="0"/>
         <v>38266</v>
@@ -3158,7 +3160,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>93</v>
@@ -3178,7 +3180,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <f>EDATE(A54,1)</f>
         <v>38297</v>
@@ -3203,7 +3205,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <f t="shared" si="0"/>
         <v>38327</v>
@@ -3230,7 +3232,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="20" t="s">
         <v>98</v>
@@ -3247,7 +3249,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
         <v>77</v>
       </c>
@@ -3269,7 +3271,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <f>EDATE(A57,1)</f>
         <v>38358</v>
@@ -3296,7 +3298,7 @@
         <v>38376</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>100</v>
@@ -3316,7 +3318,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <f>EDATE(A60,1)</f>
         <v>38389</v>
@@ -3341,7 +3343,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <f t="shared" si="0"/>
         <v>38417</v>
@@ -3366,7 +3368,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f t="shared" si="0"/>
         <v>38448</v>
@@ -3393,7 +3395,7 @@
         <v>38461</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>103</v>
@@ -3413,7 +3415,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f>EDATE(A64,1)</f>
         <v>38478</v>
@@ -3438,7 +3440,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
         <v>104</v>
@@ -3458,7 +3460,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f>EDATE(A66,1)</f>
         <v>38509</v>
@@ -3485,7 +3487,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>105</v>
@@ -3505,7 +3507,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f>EDATE(A68,1)</f>
         <v>38539</v>
@@ -3530,7 +3532,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <f t="shared" si="0"/>
         <v>38570</v>
@@ -3555,7 +3557,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f t="shared" si="0"/>
         <v>38601</v>
@@ -3580,7 +3582,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f t="shared" si="0"/>
         <v>38631</v>
@@ -3607,7 +3609,7 @@
         <v>38638</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>109</v>
@@ -3629,7 +3631,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>110</v>
@@ -3649,7 +3651,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <f>EDATE(A73,1)</f>
         <v>38662</v>
@@ -3676,7 +3678,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" s="20" t="s">
         <v>112</v>
@@ -3693,7 +3695,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>118</v>
@@ -3712,7 +3714,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="20" t="s">
         <v>112</v>
@@ -3729,7 +3731,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>119</v>
@@ -3746,7 +3748,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <f>EDATE(A76,1)</f>
         <v>38692</v>
@@ -3773,7 +3775,7 @@
         <v>38695</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
         <v>120</v>
@@ -3792,7 +3794,7 @@
         <v>38715</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>121</v>
@@ -3809,7 +3811,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
         <v>76</v>
       </c>
@@ -3831,7 +3833,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f>EDATE(A81,1)</f>
         <v>38723</v>
@@ -3856,7 +3858,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <f t="shared" si="0"/>
         <v>38754</v>
@@ -3881,7 +3883,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f t="shared" si="0"/>
         <v>38782</v>
@@ -3908,7 +3910,7 @@
         <v>38783</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>127</v>
@@ -3928,7 +3930,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <f>EDATE(A87,1)</f>
         <v>38813</v>
@@ -3955,7 +3957,7 @@
         <v>38832</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
       <c r="B90" s="20" t="s">
         <v>112</v>
@@ -3975,7 +3977,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>128</v>
@@ -3995,7 +3997,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <f>EDATE(A89,1)</f>
         <v>38843</v>
@@ -4020,7 +4022,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f t="shared" si="0"/>
         <v>38874</v>
@@ -4045,7 +4047,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <f t="shared" si="0"/>
         <v>38904</v>
@@ -4070,7 +4072,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f t="shared" si="0"/>
         <v>38935</v>
@@ -4095,7 +4097,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f t="shared" si="0"/>
         <v>38966</v>
@@ -4122,7 +4124,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>99</v>
@@ -4144,7 +4146,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>136</v>
@@ -4164,7 +4166,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <f>EDATE(A96,1)</f>
         <v>38996</v>
@@ -4189,7 +4191,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>137</v>
@@ -4209,7 +4211,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <f>EDATE(A99,1)</f>
         <v>39027</v>
@@ -4234,7 +4236,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>139</v>
@@ -4256,7 +4258,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>140</v>
@@ -4276,7 +4278,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <f>EDATE(A101,1)</f>
         <v>39057</v>
@@ -4301,7 +4303,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
         <v>75</v>
       </c>
@@ -4323,7 +4325,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <f>EDATE(A104,1)</f>
         <v>39088</v>
@@ -4348,7 +4350,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f t="shared" ref="A107:A180" si="1">EDATE(A106,1)</f>
         <v>39119</v>
@@ -4373,7 +4375,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <f t="shared" si="1"/>
         <v>39147</v>
@@ -4398,7 +4400,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <f t="shared" si="1"/>
         <v>39178</v>
@@ -4423,7 +4425,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <f t="shared" si="1"/>
         <v>39208</v>
@@ -4448,7 +4450,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>146</v>
@@ -4465,7 +4467,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <f>EDATE(A110,1)</f>
         <v>39239</v>
@@ -4490,7 +4492,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f t="shared" si="1"/>
         <v>39269</v>
@@ -4515,7 +4517,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <f t="shared" si="1"/>
         <v>39300</v>
@@ -4540,7 +4542,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <f t="shared" si="1"/>
         <v>39331</v>
@@ -4567,7 +4569,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>150</v>
@@ -4584,7 +4586,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <f>EDATE(A115,1)</f>
         <v>39361</v>
@@ -4611,7 +4613,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>109</v>
@@ -4633,7 +4635,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>159</v>
@@ -4653,7 +4655,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <f>EDATE(A117,1)</f>
         <v>39392</v>
@@ -4678,7 +4680,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>139</v>
@@ -4698,7 +4700,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>172</v>
@@ -4718,7 +4720,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <f>EDATE(A120,1)</f>
         <v>39422</v>
@@ -4743,7 +4745,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="48" t="s">
         <v>74</v>
       </c>
@@ -4765,7 +4767,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <f>EDATE(A123,1)</f>
         <v>39453</v>
@@ -4790,7 +4792,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <f t="shared" si="1"/>
         <v>39484</v>
@@ -4815,7 +4817,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <f t="shared" si="1"/>
         <v>39513</v>
@@ -4840,7 +4842,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f t="shared" si="1"/>
         <v>39544</v>
@@ -4865,7 +4867,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f t="shared" si="1"/>
         <v>39574</v>
@@ -4890,7 +4892,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>99</v>
@@ -4912,7 +4914,7 @@
         <v>39595</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>165</v>
@@ -4932,7 +4934,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <f>EDATE(A129,1)</f>
         <v>39605</v>
@@ -4959,7 +4961,7 @@
         <v>39611</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
         <v>166</v>
@@ -4979,7 +4981,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <f>EDATE(A132,1)</f>
         <v>39635</v>
@@ -5006,7 +5008,7 @@
         <v>39660</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>99</v>
@@ -5028,7 +5030,7 @@
         <v>39661</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
         <v>167</v>
@@ -5048,7 +5050,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <f>EDATE(A134,1)</f>
         <v>39666</v>
@@ -5075,7 +5077,7 @@
         <v>39680</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>173</v>
@@ -5095,7 +5097,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="49"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <f>EDATE(A137,1)</f>
         <v>39697</v>
@@ -5122,7 +5124,7 @@
         <v>39706</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>99</v>
@@ -5144,7 +5146,7 @@
         <v>39716</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>174</v>
@@ -5164,7 +5166,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <f>EDATE(A139,1)</f>
         <v>39727</v>
@@ -5191,7 +5193,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>92</v>
@@ -5213,7 +5215,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>99</v>
@@ -5235,7 +5237,7 @@
         <v>39750</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>175</v>
@@ -5255,7 +5257,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <f>EDATE(A142,1)</f>
         <v>39758</v>
@@ -5282,7 +5284,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>92</v>
@@ -5304,7 +5306,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>138</v>
@@ -5324,7 +5326,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>176</v>
@@ -5344,7 +5346,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <f>EDATE(A146,1)</f>
         <v>39788</v>
@@ -5371,7 +5373,7 @@
         <v>39790</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>177</v>
@@ -5391,7 +5393,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="48" t="s">
         <v>73</v>
       </c>
@@ -5413,7 +5415,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <f>EDATE(A150,1)</f>
         <v>39819</v>
@@ -5440,7 +5442,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>179</v>
@@ -5460,7 +5462,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <f>EDATE(A153,1)</f>
         <v>39850</v>
@@ -5487,7 +5489,7 @@
         <v>39851</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>180</v>
@@ -5507,7 +5509,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <f>EDATE(A155,1)</f>
         <v>39878</v>
@@ -5534,7 +5536,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>188</v>
@@ -5554,7 +5556,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <f>EDATE(A157,1)</f>
         <v>39909</v>
@@ -5581,7 +5583,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>99</v>
@@ -5603,7 +5605,7 @@
         <v>39910</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>189</v>
@@ -5623,7 +5625,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>190</v>
@@ -5643,7 +5645,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <f>EDATE(A159,1)</f>
         <v>39939</v>
@@ -5668,7 +5670,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <f t="shared" si="1"/>
         <v>39970</v>
@@ -5695,7 +5697,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>191</v>
@@ -5715,7 +5717,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <f>EDATE(A164,1)</f>
         <v>40000</v>
@@ -5742,7 +5744,7 @@
         <v>40007</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>99</v>
@@ -5764,7 +5766,7 @@
         <v>40021</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>192</v>
@@ -5784,7 +5786,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <f>EDATE(A166,1)</f>
         <v>40031</v>
@@ -5811,7 +5813,7 @@
         <v>40037</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>193</v>
@@ -5833,7 +5835,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>194</v>
@@ -5853,7 +5855,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <f>EDATE(A169,1)</f>
         <v>40062</v>
@@ -5880,7 +5882,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>195</v>
@@ -5900,7 +5902,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <f>EDATE(A172,1)</f>
         <v>40092</v>
@@ -5927,7 +5929,7 @@
         <v>40094</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>138</v>
@@ -5947,7 +5949,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>99</v>
@@ -5969,7 +5971,7 @@
         <v>40107</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>99</v>
@@ -5991,7 +5993,7 @@
         <v>40133</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>202</v>
@@ -6011,7 +6013,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <f>EDATE(A174,1)</f>
         <v>40123</v>
@@ -6036,7 +6038,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <f t="shared" si="1"/>
         <v>40153</v>
@@ -6063,7 +6065,7 @@
         <v>40149</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>99</v>
@@ -6082,7 +6084,7 @@
         <v>40155</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>99</v>
@@ -6101,7 +6103,7 @@
         <v>40162</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>204</v>
@@ -6118,7 +6120,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="48" t="s">
         <v>72</v>
       </c>
@@ -6137,7 +6139,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <f>EDATE(A180,1)</f>
         <v>40184</v>
@@ -6161,7 +6163,7 @@
         <v>40183</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>92</v>
@@ -6180,7 +6182,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>205</v>
@@ -6197,7 +6199,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <f>EDATE(A185,1)</f>
         <v>40215</v>
@@ -6224,7 +6226,7 @@
         <v>40231</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>149</v>
@@ -6244,7 +6246,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <f>EDATE(A188,1)</f>
         <v>40243</v>
@@ -6271,7 +6273,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>206</v>
@@ -6291,7 +6293,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <f>EDATE(A190,1)</f>
         <v>40274</v>
@@ -6318,7 +6320,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>99</v>
@@ -6340,7 +6342,7 @@
         <v>40294</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>112</v>
@@ -6360,7 +6362,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>207</v>
@@ -6380,7 +6382,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <f>EDATE(A192,1)</f>
         <v>40304</v>
@@ -6407,7 +6409,7 @@
         <v>40322</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>99</v>
@@ -6429,7 +6431,7 @@
         <v>40336</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>212</v>
@@ -6449,7 +6451,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <f>EDATE(A196,1)</f>
         <v>40335</v>
@@ -6470,7 +6472,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <f t="shared" ref="A200:A212" si="2">EDATE(A199,1)</f>
         <v>40365</v>
@@ -6497,7 +6499,7 @@
         <v>40360</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>99</v>
@@ -6519,7 +6521,7 @@
         <v>40365</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>99</v>
@@ -6541,7 +6543,7 @@
         <v>40373</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>138</v>
@@ -6561,7 +6563,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>99</v>
@@ -6583,7 +6585,7 @@
         <v>40400</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <f>EDATE(A200,1)</f>
         <v>40396</v>
@@ -6610,7 +6612,7 @@
         <v>40406</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>99</v>
@@ -6632,7 +6634,7 @@
         <v>40421</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>213</v>
@@ -6652,7 +6654,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <f>EDATE(A205,1)</f>
         <v>40427</v>
@@ -6677,7 +6679,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <f t="shared" si="2"/>
         <v>40457</v>
@@ -6704,7 +6706,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>109</v>
@@ -6726,7 +6728,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <f>EDATE(A209,1)</f>
         <v>40488</v>
@@ -6747,7 +6749,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <f t="shared" si="2"/>
         <v>40518</v>
@@ -6774,7 +6776,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>215</v>
@@ -6794,7 +6796,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="48" t="s">
         <v>71</v>
       </c>
@@ -6816,7 +6818,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <f>EDATE(A212,1)</f>
         <v>40549</v>
@@ -6841,7 +6843,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <f t="shared" ref="A216:A227" si="3">EDATE(A215,1)</f>
         <v>40580</v>
@@ -6866,7 +6868,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <f t="shared" si="3"/>
         <v>40608</v>
@@ -6891,7 +6893,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <f t="shared" si="3"/>
         <v>40639</v>
@@ -6916,7 +6918,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>223</v>
@@ -6936,7 +6938,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <f>EDATE(A218,1)</f>
         <v>40669</v>
@@ -6961,7 +6963,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <f t="shared" si="3"/>
         <v>40700</v>
@@ -6986,7 +6988,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>112</v>
@@ -7006,7 +7008,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>225</v>
@@ -7026,7 +7028,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <f>EDATE(A221,1)</f>
         <v>40730</v>
@@ -7053,7 +7055,7 @@
         <v>40735</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>84</v>
@@ -7073,7 +7075,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <f>EDATE(A224,1)</f>
         <v>40761</v>
@@ -7098,7 +7100,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <f t="shared" si="3"/>
         <v>40792</v>
@@ -7125,7 +7127,7 @@
         <v>40798</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>227</v>
@@ -7145,7 +7147,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <f>EDATE(A227,1)</f>
         <v>40822</v>
@@ -7172,7 +7174,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>99</v>
@@ -7194,7 +7196,7 @@
         <v>40842</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>228</v>
@@ -7214,7 +7216,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <f>EDATE(A229,1)</f>
         <v>40853</v>
@@ -7241,7 +7243,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>129</v>
@@ -7261,7 +7263,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <f>EDATE(A232,1)</f>
         <v>40883</v>
@@ -7288,7 +7290,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>229</v>
@@ -7308,7 +7310,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="48" t="s">
         <v>70</v>
       </c>
@@ -7330,7 +7332,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <f>EDATE(A234,1)</f>
         <v>40914</v>
@@ -7355,7 +7357,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <f>EDATE(A237,1)</f>
         <v>40945</v>
@@ -7380,7 +7382,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <f>EDATE(A238,1)</f>
         <v>40974</v>
@@ -7403,7 +7405,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>215</v>
@@ -7423,7 +7425,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <f>EDATE(A239,1)</f>
         <v>41005</v>
@@ -7450,7 +7452,7 @@
         <v>41002</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>112</v>
@@ -7470,7 +7472,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>236</v>
@@ -7490,7 +7492,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <f>EDATE(A241,1)</f>
         <v>41035</v>
@@ -7517,7 +7519,7 @@
         <v>41036</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>92</v>
@@ -7539,7 +7541,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>120</v>
@@ -7561,7 +7563,7 @@
         <v>41061</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>237</v>
@@ -7583,7 +7585,7 @@
         <v>41078</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <f>EDATE(A244,1)</f>
         <v>41066</v>
@@ -7608,7 +7610,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>238</v>
@@ -7628,7 +7630,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <f>EDATE(A248,1)</f>
         <v>41096</v>
@@ -7655,7 +7657,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>92</v>
@@ -7677,7 +7679,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>239</v>
@@ -7697,7 +7699,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <f>EDATE(A250,1)</f>
         <v>41127</v>
@@ -7722,7 +7724,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <f t="shared" ref="A254:A345" si="4">EDATE(A253,1)</f>
         <v>41158</v>
@@ -7749,7 +7751,7 @@
         <v>41162</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>228</v>
@@ -7769,7 +7771,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <f>EDATE(A254,1)</f>
         <v>41188</v>
@@ -7796,7 +7798,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>240</v>
@@ -7816,7 +7818,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <f>EDATE(A256,1)</f>
         <v>41219</v>
@@ -7843,7 +7845,7 @@
         <v>41226</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>120</v>
@@ -7865,7 +7867,7 @@
         <v>41262</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>222</v>
@@ -7885,7 +7887,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="49"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <f>EDATE(A258,1)</f>
         <v>41249</v>
@@ -7912,7 +7914,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>246</v>
@@ -7932,7 +7934,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="48" t="s">
         <v>69</v>
       </c>
@@ -7954,7 +7956,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <f>EDATE(A261,1)</f>
         <v>41280</v>
@@ -7979,7 +7981,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>151</v>
@@ -8001,7 +8003,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>247</v>
@@ -8021,7 +8023,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <f>EDATE(A264,1)</f>
         <v>41311</v>
@@ -8046,7 +8048,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <f t="shared" si="4"/>
         <v>41339</v>
@@ -8071,7 +8073,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <f t="shared" si="4"/>
         <v>41370</v>
@@ -8092,7 +8094,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <f t="shared" si="4"/>
         <v>41400</v>
@@ -8117,7 +8119,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <f t="shared" si="4"/>
         <v>41431</v>
@@ -8142,7 +8144,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>251</v>
@@ -8162,7 +8164,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <f>EDATE(A271,1)</f>
         <v>41461</v>
@@ -8183,7 +8185,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <f t="shared" si="4"/>
         <v>41492</v>
@@ -8208,7 +8210,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <f t="shared" si="4"/>
         <v>41523</v>
@@ -8233,7 +8235,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <f t="shared" si="4"/>
         <v>41553</v>
@@ -8260,7 +8262,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>165</v>
@@ -8280,7 +8282,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <f>EDATE(A276,1)</f>
         <v>41584</v>
@@ -8307,7 +8309,7 @@
         <v>41599</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>259</v>
@@ -8325,7 +8327,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="49"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <f>EDATE(A278,1)</f>
         <v>41614</v>
@@ -8350,7 +8352,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>260</v>
@@ -8368,7 +8370,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="48" t="s">
         <v>68</v>
       </c>
@@ -8390,7 +8392,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <f>EDATE(A280,1)</f>
         <v>41645</v>
@@ -8415,7 +8417,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <f t="shared" si="4"/>
         <v>41676</v>
@@ -8440,7 +8442,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <f t="shared" si="4"/>
         <v>41704</v>
@@ -8465,7 +8467,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <f t="shared" si="4"/>
         <v>41735</v>
@@ -8490,7 +8492,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <f t="shared" si="4"/>
         <v>41765</v>
@@ -8515,7 +8517,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>265</v>
@@ -8535,7 +8537,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <f>EDATE(A287,1)</f>
         <v>41796</v>
@@ -8560,7 +8562,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <f t="shared" si="4"/>
         <v>41826</v>
@@ -8585,7 +8587,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <f t="shared" si="4"/>
         <v>41857</v>
@@ -8610,7 +8612,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>267</v>
@@ -8630,7 +8632,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <f>EDATE(A291,1)</f>
         <v>41888</v>
@@ -8655,7 +8657,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <f t="shared" si="4"/>
         <v>41918</v>
@@ -8682,7 +8684,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>93</v>
@@ -8702,7 +8704,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <f>EDATE(A294,1)</f>
         <v>41949</v>
@@ -8727,7 +8729,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <f t="shared" si="4"/>
         <v>41979</v>
@@ -8752,7 +8754,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>269</v>
@@ -8772,7 +8774,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="48" t="s">
         <v>67</v>
       </c>
@@ -8794,7 +8796,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <f>EDATE(A297,1)</f>
         <v>42010</v>
@@ -8819,7 +8821,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <f t="shared" si="4"/>
         <v>42041</v>
@@ -8844,7 +8846,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <f t="shared" si="4"/>
         <v>42069</v>
@@ -8871,7 +8873,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>94</v>
@@ -8891,7 +8893,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <f>EDATE(A302,1)</f>
         <v>42100</v>
@@ -8916,7 +8918,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>275</v>
@@ -8936,7 +8938,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <f>EDATE(A304,1)</f>
         <v>42130</v>
@@ -8961,7 +8963,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <f t="shared" si="4"/>
         <v>42161</v>
@@ -8986,7 +8988,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <f t="shared" si="4"/>
         <v>42191</v>
@@ -9011,7 +9013,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <f t="shared" si="4"/>
         <v>42222</v>
@@ -9036,7 +9038,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23">
         <f t="shared" si="4"/>
         <v>42253</v>
@@ -9061,7 +9063,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <f t="shared" si="4"/>
         <v>42283</v>
@@ -9088,7 +9090,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>279</v>
@@ -9108,7 +9110,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <f>EDATE(A311,1)</f>
         <v>42314</v>
@@ -9133,7 +9135,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <f t="shared" si="4"/>
         <v>42344</v>
@@ -9158,7 +9160,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="48" t="s">
         <v>66</v>
       </c>
@@ -9180,7 +9182,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <f>EDATE(A314,1)</f>
         <v>42375</v>
@@ -9205,7 +9207,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <f t="shared" si="4"/>
         <v>42406</v>
@@ -9230,7 +9232,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <f t="shared" si="4"/>
         <v>42435</v>
@@ -9255,7 +9257,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
         <v>286</v>
@@ -9275,7 +9277,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <f>EDATE(A318,1)</f>
         <v>42466</v>
@@ -9300,7 +9302,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>112</v>
@@ -9320,7 +9322,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>287</v>
@@ -9340,7 +9342,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <f>EDATE(A320,1)</f>
         <v>42496</v>
@@ -9361,7 +9363,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <f t="shared" si="4"/>
         <v>42527</v>
@@ -9386,7 +9388,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <f t="shared" si="4"/>
         <v>42557</v>
@@ -9411,7 +9413,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <f t="shared" si="4"/>
         <v>42588</v>
@@ -9438,7 +9440,7 @@
         <v>42606</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>226</v>
@@ -9458,7 +9460,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
         <f>EDATE(A326,1)</f>
         <v>42619</v>
@@ -9483,7 +9485,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23">
         <f t="shared" si="4"/>
         <v>42649</v>
@@ -9510,7 +9512,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>291</v>
@@ -9530,7 +9532,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <f>EDATE(A329,1)</f>
         <v>42680</v>
@@ -9555,7 +9557,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23">
         <f t="shared" si="4"/>
         <v>42710</v>
@@ -9580,7 +9582,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="48" t="s">
         <v>65</v>
       </c>
@@ -9602,7 +9604,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <f>EDATE(A332,1)</f>
         <v>42741</v>
@@ -9627,7 +9629,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <f t="shared" si="4"/>
         <v>42772</v>
@@ -9648,7 +9650,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <f t="shared" si="4"/>
         <v>42800</v>
@@ -9673,7 +9675,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>112</v>
@@ -9693,7 +9695,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>112</v>
@@ -9713,7 +9715,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23"/>
       <c r="B339" s="20"/>
       <c r="C339" s="13"/>
@@ -9729,7 +9731,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23">
         <f>EDATE(A336,1)</f>
         <v>42831</v>
@@ -9750,7 +9752,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <f t="shared" si="4"/>
         <v>42861</v>
@@ -9771,7 +9773,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23">
         <f t="shared" si="4"/>
         <v>42892</v>
@@ -9792,7 +9794,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <f t="shared" si="4"/>
         <v>42922</v>
@@ -9813,7 +9815,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23">
         <f t="shared" si="4"/>
         <v>42953</v>
@@ -9834,7 +9836,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <f t="shared" si="4"/>
         <v>42984</v>
@@ -9855,7 +9857,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <f t="shared" ref="A346:A349" si="5">EDATE(A345,1)</f>
         <v>43014</v>
@@ -9882,7 +9884,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>92</v>
@@ -9904,7 +9906,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <f>EDATE(A346,1)</f>
         <v>43045</v>
@@ -9925,7 +9927,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <f t="shared" si="5"/>
         <v>43075</v>
@@ -9950,7 +9952,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="48" t="s">
         <v>44</v>
       </c>
@@ -9970,7 +9972,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>43101</v>
       </c>
@@ -9990,7 +9992,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>43132</v>
       </c>
@@ -10010,7 +10012,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>43160</v>
       </c>
@@ -10030,7 +10032,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>43191</v>
       </c>
@@ -10050,7 +10052,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>43221</v>
       </c>
@@ -10072,7 +10074,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="41"/>
       <c r="B356" s="15" t="s">
         <v>45</v>
@@ -10094,7 +10096,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>43252</v>
       </c>
@@ -10114,7 +10116,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>43282</v>
       </c>
@@ -10138,7 +10140,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>43313</v>
       </c>
@@ -10164,7 +10166,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>43344</v>
       </c>
@@ -10184,7 +10186,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>43374</v>
       </c>
@@ -10210,7 +10212,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>43405</v>
       </c>
@@ -10230,7 +10232,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>43435</v>
       </c>
@@ -10250,7 +10252,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="48" t="s">
         <v>50</v>
       </c>
@@ -10268,7 +10270,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>43466</v>
       </c>
@@ -10288,7 +10290,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>43497</v>
       </c>
@@ -10308,7 +10310,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>43525</v>
       </c>
@@ -10328,7 +10330,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>43556</v>
       </c>
@@ -10348,7 +10350,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>43586</v>
       </c>
@@ -10370,7 +10372,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>45</v>
@@ -10392,7 +10394,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>43617</v>
       </c>
@@ -10412,7 +10414,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>43647</v>
       </c>
@@ -10432,7 +10434,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>43683</v>
       </c>
@@ -10452,9 +10454,9 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23"/>
-      <c r="B374" s="64" t="s">
+      <c r="B374" s="53" t="s">
         <v>302</v>
       </c>
       <c r="C374" s="13"/>
@@ -10470,7 +10472,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="48" t="s">
         <v>53</v>
       </c>
@@ -10488,7 +10490,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>44197</v>
       </c>
@@ -10508,7 +10510,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>44228</v>
       </c>
@@ -10528,7 +10530,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>44256</v>
       </c>
@@ -10548,7 +10550,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>44287</v>
       </c>
@@ -10568,7 +10570,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>44317</v>
       </c>
@@ -10588,7 +10590,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>44348</v>
       </c>
@@ -10608,7 +10610,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>44378</v>
       </c>
@@ -10628,7 +10630,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>44409</v>
       </c>
@@ -10648,7 +10650,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>44440</v>
       </c>
@@ -10668,7 +10670,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>44470</v>
       </c>
@@ -10690,7 +10692,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>45</v>
@@ -10710,7 +10712,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>60</v>
@@ -10734,7 +10736,7 @@
         <v>44511</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>44501</v>
       </c>
@@ -10754,7 +10756,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>44531</v>
       </c>
@@ -10780,7 +10782,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="48" t="s">
         <v>61</v>
       </c>
@@ -10798,7 +10800,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>44562</v>
       </c>
@@ -10818,7 +10820,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>44593</v>
       </c>
@@ -10838,7 +10840,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>44621</v>
       </c>
@@ -10858,7 +10860,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>44652</v>
       </c>
@@ -10878,7 +10880,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>44682</v>
       </c>
@@ -10898,7 +10900,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>44713</v>
       </c>
@@ -10918,7 +10920,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>44743</v>
       </c>
@@ -10938,7 +10940,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>44774</v>
       </c>
@@ -10958,7 +10960,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>44805</v>
       </c>
@@ -10978,7 +10980,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>44835</v>
       </c>
@@ -10998,7 +11000,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>44866</v>
       </c>
@@ -11022,7 +11024,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>44896</v>
       </c>
@@ -11048,7 +11050,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="48" t="s">
         <v>303</v>
       </c>
@@ -11066,7 +11068,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>44927</v>
       </c>
@@ -11086,7 +11088,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f>EDATE(A404,1)</f>
         <v>44958</v>
@@ -11107,7 +11109,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <f t="shared" ref="A406:A411" si="6">EDATE(A405,1)</f>
         <v>44986</v>
@@ -11128,31 +11130,35 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f t="shared" si="6"/>
         <v>45017</v>
       </c>
       <c r="B407" s="20"/>
-      <c r="C407" s="13"/>
+      <c r="C407" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D407" s="39"/>
       <c r="E407" s="13"/>
       <c r="F407" s="20"/>
-      <c r="G407" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G407" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H407" s="39"/>
       <c r="I407" s="9"/>
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f t="shared" si="6"/>
         <v>45047</v>
       </c>
-      <c r="B408" s="20"/>
+      <c r="B408" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="C408" s="13"/>
       <c r="D408" s="39"/>
       <c r="E408" s="13"/>
@@ -11164,9 +11170,11 @@
       <c r="H408" s="39"/>
       <c r="I408" s="9"/>
       <c r="J408" s="11"/>
-      <c r="K408" s="20"/>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K408" s="20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <f t="shared" si="6"/>
         <v>45078</v>
@@ -11185,7 +11193,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f t="shared" si="6"/>
         <v>45108</v>
@@ -11204,7 +11212,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f t="shared" si="6"/>
         <v>45139</v>
@@ -11223,7 +11231,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -11239,7 +11247,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -11255,7 +11263,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -11271,7 +11279,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -11287,7 +11295,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -11303,7 +11311,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -11319,7 +11327,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -11335,7 +11343,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -11351,7 +11359,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -11367,7 +11375,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -11383,7 +11391,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -11399,7 +11407,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -11415,7 +11423,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11431,7 +11439,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11447,7 +11455,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11463,7 +11471,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11479,7 +11487,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11495,7 +11503,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11511,7 +11519,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11527,7 +11535,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11543,7 +11551,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11559,7 +11567,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11575,7 +11583,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11591,7 +11599,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11607,7 +11615,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11623,7 +11631,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11639,7 +11647,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11655,7 +11663,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11671,7 +11679,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11687,7 +11695,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11703,7 +11711,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11719,7 +11727,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11735,7 +11743,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -11751,7 +11759,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -11767,7 +11775,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -11783,7 +11791,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -11799,7 +11807,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -11815,7 +11823,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -11831,7 +11839,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -11847,7 +11855,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -11863,7 +11871,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -11879,7 +11887,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -11895,7 +11903,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -11911,7 +11919,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -11927,7 +11935,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -11943,7 +11951,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -11959,7 +11967,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -11975,7 +11983,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -11991,7 +11999,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -12007,7 +12015,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -12023,7 +12031,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -12039,7 +12047,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -12055,7 +12063,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -12071,7 +12079,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -12087,7 +12095,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -12103,7 +12111,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -12119,7 +12127,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -12135,7 +12143,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -12151,7 +12159,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="41"/>
       <c r="B470" s="15"/>
       <c r="C470" s="42"/>
@@ -12182,10 +12190,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12208,41 +12216,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="61" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12271,7 +12279,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>69.637</v>
       </c>
@@ -12303,17 +12311,17 @@
         <v>1.042</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12327,14 +12335,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12361,7 +12369,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12387,7 +12395,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12413,7 +12421,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12439,7 +12447,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12465,7 +12473,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12491,7 +12499,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12517,7 +12525,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12543,7 +12551,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12563,7 +12571,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12583,7 +12591,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12603,7 +12611,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12624,7 +12632,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12645,7 +12653,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12666,7 +12674,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12687,7 +12695,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12708,7 +12716,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12729,7 +12737,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12750,7 +12758,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12771,7 +12779,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12792,7 +12800,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12813,7 +12821,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12834,7 +12842,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12855,7 +12863,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12876,7 +12884,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12897,7 +12905,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12918,7 +12926,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12939,7 +12947,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12960,7 +12968,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12981,7 +12989,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13002,7 +13010,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13023,7 +13031,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13032,7 +13040,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13041,7 +13049,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13050,7 +13058,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13059,7 +13067,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13068,7 +13076,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13077,7 +13085,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13086,7 +13094,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13095,7 +13103,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13104,7 +13112,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13113,7 +13121,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13122,7 +13130,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13131,7 +13139,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13140,7 +13148,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13149,7 +13157,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13158,7 +13166,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13167,7 +13175,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13176,7 +13184,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13185,7 +13193,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13194,7 +13202,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13203,7 +13211,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13212,7 +13220,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13221,7 +13229,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13230,7 +13238,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13239,7 +13247,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13248,7 +13256,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13257,7 +13265,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13266,7 +13274,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13275,7 +13283,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13284,7 +13292,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
